--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amennen/motStudy04/mturk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amennen/Documents/Norman/MOT/motStudy05/mturk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1940" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="18120" yWindow="3580" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="154">
   <si>
     <t>BEFORE</t>
   </si>
@@ -395,9 +395,6 @@
     <t>LIGHTHOUSE</t>
   </si>
   <si>
-    <t>WRONG DESC</t>
-  </si>
-  <si>
     <t>SUBJECTS</t>
   </si>
   <si>
@@ -420,6 +417,78 @@
   </si>
   <si>
     <t>BEDCOVER</t>
+  </si>
+  <si>
+    <t>MAKE UP</t>
+  </si>
+  <si>
+    <t>MAKEUP</t>
+  </si>
+  <si>
+    <t>CURTAINED</t>
+  </si>
+  <si>
+    <t>CURTAIN</t>
+  </si>
+  <si>
+    <t>ROLLY</t>
+  </si>
+  <si>
+    <t>ROLLING</t>
+  </si>
+  <si>
+    <t>PRESCHOOLERS</t>
+  </si>
+  <si>
+    <t>PRESCHOOL</t>
+  </si>
+  <si>
+    <t>REMOVE LEFT/ETC</t>
+  </si>
+  <si>
+    <t>CORRECT SPELLING</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>BUTE</t>
+  </si>
+  <si>
+    <t>BLUEISH</t>
+  </si>
+  <si>
+    <t>EMISSED</t>
+  </si>
+  <si>
+    <t>EMITTED</t>
+  </si>
+  <si>
+    <t>POWER PLANT</t>
+  </si>
+  <si>
+    <t>POWERPLANT</t>
+  </si>
+  <si>
+    <t>CMON</t>
+  </si>
+  <si>
+    <t>COUNTERTOP</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>SNACKBAR</t>
+  </si>
+  <si>
+    <t>SNACK BAR</t>
+  </si>
+  <si>
+    <t>RAMSCHACKLE</t>
+  </si>
+  <si>
+    <t>SHACK</t>
   </si>
 </sst>
 </file>
@@ -734,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,15 +829,23 @@
         <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>28</v>
@@ -777,15 +854,15 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J5" t="s">
         <v>29</v>
@@ -794,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -810,6 +887,9 @@
       <c r="L6" t="s">
         <v>115</v>
       </c>
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -822,7 +902,10 @@
         <v>31</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>147</v>
+      </c>
+      <c r="N7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -843,434 +926,512 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>128</v>
+      </c>
+      <c r="J10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>75</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>91</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>93</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B50" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>43</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>73</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>114</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B63" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C57">
-    <sortCondition ref="A4:A57"/>
+  <sortState ref="A3:C64">
+    <sortCondition ref="A3:A64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="3580" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="8340" yWindow="9960" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="157">
   <si>
     <t>BEFORE</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>SHACK</t>
+  </si>
+  <si>
+    <t>OTHER CHANGES</t>
+  </si>
+  <si>
+    <t>CORRECT INCORRECT SPELLING</t>
+  </si>
+  <si>
+    <t>(KEEP NOT RELEVANT DECSRIPTIONS?)</t>
   </si>
 </sst>
 </file>
@@ -805,14 +814,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -822,6 +832,12 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" t="s">
         <v>27</v>
       </c>
@@ -839,6 +855,12 @@
       <c r="B3" t="s">
         <v>64</v>
       </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -847,6 +869,9 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
       <c r="J4" t="s">
         <v>28</v>
       </c>
@@ -910,10 +935,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -921,10 +946,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
         <v>140</v>
@@ -932,10 +957,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
         <v>141</v>
@@ -943,495 +968,495 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C64">
-    <sortCondition ref="A3:A64"/>
+  <sortState ref="A3:C71">
+    <sortCondition ref="A3:A71"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amennen/Documents/Norman/MOT/motStudy05/mturk/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amennen/motStudy05/mturk/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="9960" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="820" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
   <si>
     <t>BEFORE</t>
   </si>
@@ -92,9 +92,6 @@
     <t>BOOKSHELVES</t>
   </si>
   <si>
-    <t>BOOK SHELF</t>
-  </si>
-  <si>
     <t>CORRAL/CARRELS</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>TRACERY</t>
   </si>
   <si>
-    <t>IGNORE</t>
-  </si>
-  <si>
     <t>FILMY</t>
   </si>
   <si>
@@ -293,9 +287,6 @@
     <t>LAMPPOST</t>
   </si>
   <si>
-    <t>LAMP</t>
-  </si>
-  <si>
     <t>UNKEMPT</t>
   </si>
   <si>
@@ -395,15 +386,6 @@
     <t>LIGHTHOUSE</t>
   </si>
   <si>
-    <t>SUBJECTS</t>
-  </si>
-  <si>
-    <t>KEEP WRONG DESC</t>
-  </si>
-  <si>
-    <t>REMOVE NON WORDS</t>
-  </si>
-  <si>
     <t>WOODCHIPS</t>
   </si>
   <si>
@@ -443,12 +425,6 @@
     <t>PRESCHOOL</t>
   </si>
   <si>
-    <t>REMOVE LEFT/ETC</t>
-  </si>
-  <si>
-    <t>CORRECT SPELLING</t>
-  </si>
-  <si>
     <t>CRT</t>
   </si>
   <si>
@@ -497,15 +473,50 @@
     <t>CORRECT INCORRECT SPELLING</t>
   </si>
   <si>
-    <t>(KEEP NOT RELEVANT DECSRIPTIONS?)</t>
+    <t>IRRELEVANT TEXT NOT PART OF DESC</t>
+  </si>
+  <si>
+    <t>IGNORE WORDS THAT DON'T HAVE CLEAR TRANSLATION</t>
+  </si>
+  <si>
+    <t>MCMANSION</t>
+  </si>
+  <si>
+    <t>MANSION</t>
+  </si>
+  <si>
+    <t>ALL 'ISH' IN COLORS-REMOVE</t>
+  </si>
+  <si>
+    <t>ELLIPTICLE</t>
+  </si>
+  <si>
+    <t>ELLIPTICAL</t>
+  </si>
+  <si>
+    <t>NON WORDS YOU CAN'T TELL WHAT WORD</t>
+  </si>
+  <si>
+    <t>BOOKSHELF</t>
+  </si>
+  <si>
+    <t>LAMP POST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -533,8 +544,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,81 +837,91 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -907,16 +929,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>115</v>
-      </c>
-      <c r="N6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -924,38 +943,35 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -963,52 +979,55 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1021,26 +1040,26 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,10 +1072,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,10 +1088,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,373 +1104,389 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="820" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="4640" yWindow="780" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
   <si>
     <t>BEFORE</t>
   </si>
@@ -95,15 +95,9 @@
     <t>CORRAL/CARRELS</t>
   </si>
   <si>
-    <t>CUBBY</t>
-  </si>
-  <si>
     <t>SHELF</t>
   </si>
   <si>
-    <t>FILAGREE</t>
-  </si>
-  <si>
     <t>TRACERY</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>WROUGHT</t>
   </si>
   <si>
-    <t>HAHA</t>
-  </si>
-  <si>
     <t>REMOVE</t>
   </si>
   <si>
@@ -158,15 +149,9 @@
     <t>TRASH CAN</t>
   </si>
   <si>
-    <t>LECTURN</t>
-  </si>
-  <si>
     <t>PODIUM</t>
   </si>
   <si>
-    <t>DIAS</t>
-  </si>
-  <si>
     <t>PLATFORM</t>
   </si>
   <si>
@@ -287,6 +272,9 @@
     <t>LAMPPOST</t>
   </si>
   <si>
+    <t>LAMP</t>
+  </si>
+  <si>
     <t>UNKEMPT</t>
   </si>
   <si>
@@ -353,21 +341,12 @@
     <t>BLUE</t>
   </si>
   <si>
-    <t>PRIMENT</t>
-  </si>
-  <si>
-    <t>PRIMERY</t>
-  </si>
-  <si>
     <t>WORKOUT</t>
   </si>
   <si>
     <t>WORK OUT</t>
   </si>
   <si>
-    <t>BRICK = wrong</t>
-  </si>
-  <si>
     <t>STAIR CASE</t>
   </si>
   <si>
@@ -446,9 +425,6 @@
     <t>POWERPLANT</t>
   </si>
   <si>
-    <t>CMON</t>
-  </si>
-  <si>
     <t>COUNTERTOP</t>
   </si>
   <si>
@@ -500,7 +476,82 @@
     <t>BOOKSHELF</t>
   </si>
   <si>
-    <t>LAMP POST</t>
+    <t xml:space="preserve">COMPLETE WORDS/CORRECTS IF OBVIOUS </t>
+  </si>
+  <si>
+    <t>IF NOT THEN DELETE</t>
+  </si>
+  <si>
+    <t>HAIR CUT</t>
+  </si>
+  <si>
+    <t>HAIRCUT</t>
+  </si>
+  <si>
+    <t>BOOK SHELF/SHELVES</t>
+  </si>
+  <si>
+    <t>HARD WOOD</t>
+  </si>
+  <si>
+    <t>HARDWOOD</t>
+  </si>
+  <si>
+    <t>BLACK BOARD</t>
+  </si>
+  <si>
+    <t>BLACKBOARD</t>
+  </si>
+  <si>
+    <t>REMOVED: MTURK SUBJECTS WHO GET &gt;=1 DETAILS WRONG/LEAVE BLANK</t>
+  </si>
+  <si>
+    <t>CUBBY/CUBBIES</t>
+  </si>
+  <si>
+    <t>COURT ROOM</t>
+  </si>
+  <si>
+    <t>COURTROOM</t>
+  </si>
+  <si>
+    <t>DAIS</t>
+  </si>
+  <si>
+    <t>FILIGREE</t>
+  </si>
+  <si>
+    <t>STEAM ROLLER</t>
+  </si>
+  <si>
+    <t>STEAMROLLER</t>
+  </si>
+  <si>
+    <t>CACTUSES</t>
+  </si>
+  <si>
+    <t>CACTI</t>
+  </si>
+  <si>
+    <t>WIND MILL</t>
+  </si>
+  <si>
+    <t>WINDMILL</t>
+  </si>
+  <si>
+    <t>DIMLY</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>BEDFRAME</t>
+  </si>
+  <si>
+    <t>BED FRAME</t>
+  </si>
+  <si>
+    <t>LECTERN</t>
   </si>
 </sst>
 </file>
@@ -824,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -835,9 +886,10 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,23 +897,20 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -870,21 +919,21 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -892,601 +941,670 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="B19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>130</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" t="s">
         <v>67</v>
       </c>
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B80" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
         <v>113</v>
       </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>36</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>51</v>
-      </c>
-      <c r="B70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" t="s">
-        <v>110</v>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="780" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="3840" yWindow="620" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
   <si>
     <t>BEFORE</t>
   </si>
@@ -552,6 +552,21 @@
   </si>
   <si>
     <t>LECTERN</t>
+  </si>
+  <si>
+    <t>PHI PHI IN FRONT OF ISLANDS</t>
+  </si>
+  <si>
+    <t>COVERLET</t>
+  </si>
+  <si>
+    <t>SKIDSTEER</t>
+  </si>
+  <si>
+    <t>TRACTOR</t>
+  </si>
+  <si>
+    <t>CINQUE TERRE--&gt;italian</t>
   </si>
 </sst>
 </file>
@@ -875,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1022,9 @@
       <c r="B9" t="s">
         <v>157</v>
       </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1015,6 +1033,9 @@
       <c r="B10" t="s">
         <v>103</v>
       </c>
+      <c r="G10" t="s">
+        <v>179</v>
+      </c>
       <c r="J10" t="s">
         <v>32</v>
       </c>
@@ -1110,500 +1131,516 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" t="s">
         <v>104</v>
       </c>
     </row>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>BEFORE</t>
   </si>
@@ -567,6 +567,87 @@
   </si>
   <si>
     <t>CINQUE TERRE--&gt;italian</t>
+  </si>
+  <si>
+    <t>LEAN TO</t>
+  </si>
+  <si>
+    <t>SHELTER</t>
+  </si>
+  <si>
+    <t>ROW BOATS</t>
+  </si>
+  <si>
+    <t>ROWBOAT</t>
+  </si>
+  <si>
+    <t>SPINY</t>
+  </si>
+  <si>
+    <t>SPINNING</t>
+  </si>
+  <si>
+    <t>SIX FLAGS</t>
+  </si>
+  <si>
+    <t>AMUSEMENT PARK</t>
+  </si>
+  <si>
+    <t>BOXY</t>
+  </si>
+  <si>
+    <t>LATTICEWORK</t>
+  </si>
+  <si>
+    <t>GRUBBY</t>
+  </si>
+  <si>
+    <t>BARISTA</t>
+  </si>
+  <si>
+    <t>RECLINER</t>
+  </si>
+  <si>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>FLOWY</t>
+  </si>
+  <si>
+    <t>FLOWING</t>
+  </si>
+  <si>
+    <t>VERDANT</t>
+  </si>
+  <si>
+    <t>WISPY</t>
+  </si>
+  <si>
+    <t>AIRY</t>
+  </si>
+  <si>
+    <t>WEIRDLY</t>
+  </si>
+  <si>
+    <t>WEIRD</t>
+  </si>
+  <si>
+    <t>SHORED</t>
+  </si>
+  <si>
+    <t>SHORE</t>
+  </si>
+  <si>
+    <t>PEDICURE</t>
+  </si>
+  <si>
+    <t>NAIL</t>
+  </si>
+  <si>
+    <t>SEAFOAM</t>
+  </si>
+  <si>
+    <t>TEAL</t>
   </si>
 </sst>
 </file>
@@ -890,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,6 +1166,9 @@
       <c r="B15" t="s">
         <v>115</v>
       </c>
+      <c r="J15" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1093,24 +1177,33 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -1120,8 +1213,11 @@
       <c r="D19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>160</v>
       </c>
@@ -1129,7 +1225,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -1137,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>159</v>
       </c>
@@ -1145,7 +1241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1161,7 +1257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1169,7 +1265,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -1193,7 +1289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -1201,7 +1297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -1217,7 +1313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1307,341 +1403,429 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>105</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>199</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="620" windowWidth="28160" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
   <si>
     <t>BEFORE</t>
   </si>
@@ -648,6 +648,63 @@
   </si>
   <si>
     <t>TEAL</t>
+  </si>
+  <si>
+    <t>MIDSOMER MURDER</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>CINQUE TERRE</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>IF PUT OBSCURE REFERENCES, MAKE CHANGE TO MAKE IT SIMPLER</t>
+  </si>
+  <si>
+    <t>ZEBRAESQUE</t>
+  </si>
+  <si>
+    <t>ZEBRA LIKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHI PHI ISLANDS </t>
+  </si>
+  <si>
+    <t>THAILAND</t>
+  </si>
+  <si>
+    <t>I THOUGHT</t>
+  </si>
+  <si>
+    <t>I THINK</t>
+  </si>
+  <si>
+    <t>I REMEMBER</t>
+  </si>
+  <si>
+    <t>ANY PART NOT DESCRIPTION</t>
+  </si>
+  <si>
+    <t>CUBICLE</t>
+  </si>
+  <si>
+    <t>DELETE: thoughts not related to picture--opposite of jail</t>
+  </si>
+  <si>
+    <t>DOWNTOWN ABBY--ENGLAND</t>
+  </si>
+  <si>
+    <t>CENTER PIECE</t>
+  </si>
+  <si>
+    <t>CENTERPIECE</t>
+  </si>
+  <si>
+    <t>SOUND OF MUSIC--countryside</t>
   </si>
 </sst>
 </file>
@@ -971,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,6 +1149,9 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
       <c r="J8" t="s">
         <v>27</v>
       </c>
@@ -1128,6 +1188,9 @@
       <c r="B11" t="s">
         <v>148</v>
       </c>
+      <c r="G11" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1136,6 +1199,9 @@
       <c r="B12" t="s">
         <v>148</v>
       </c>
+      <c r="G12" t="s">
+        <v>216</v>
+      </c>
       <c r="J12" t="s">
         <v>125</v>
       </c>
@@ -1147,6 +1213,9 @@
       <c r="B13" t="s">
         <v>167</v>
       </c>
+      <c r="G13" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1155,6 +1224,9 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="G14" t="s">
+        <v>218</v>
+      </c>
       <c r="J14" t="s">
         <v>126</v>
       </c>
@@ -1166,6 +1238,9 @@
       <c r="B15" t="s">
         <v>115</v>
       </c>
+      <c r="G15" t="s">
+        <v>219</v>
+      </c>
       <c r="J15" t="s">
         <v>188</v>
       </c>
@@ -1177,6 +1252,9 @@
       <c r="B16" t="s">
         <v>103</v>
       </c>
+      <c r="G16" t="s">
+        <v>225</v>
+      </c>
       <c r="J16" t="s">
         <v>189</v>
       </c>
@@ -1194,638 +1272,689 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="J18" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>158</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>205</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>223</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/mturk/grammarChanges.xlsx
+++ b/mturk/grammarChanges.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="229">
   <si>
     <t>BEFORE</t>
   </si>
@@ -705,6 +705,15 @@
   </si>
   <si>
     <t>SOUND OF MUSIC--countryside</t>
+  </si>
+  <si>
+    <t>HAIR DRESS***</t>
+  </si>
+  <si>
+    <t>HAIRDRESSER</t>
+  </si>
+  <si>
+    <t>LORD OF THE RING-ancient earth</t>
   </si>
 </sst>
 </file>
@@ -1028,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,6 +1275,9 @@
       <c r="B17" t="s">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
       <c r="J17" t="s">
         <v>190</v>
       </c>
@@ -1452,508 +1464,516 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>223</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>224</v>
       </c>
     </row>
